--- a/Docs/no tradicional.xlsx
+++ b/Docs/no tradicional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>1. Mecanismos de contacto con el sujeto obligado.</t>
   </si>
@@ -22,9 +22,18 @@
     <t>1.1. Sección particular</t>
   </si>
   <si>
+    <t>/transparencia</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>1.2. Mecanismos para la atención al ciudadano</t>
   </si>
   <si>
+    <t>/contactanos</t>
+  </si>
+  <si>
     <t>1.3. Localización física, sucursales o regionales, horarios y días de atención al público</t>
   </si>
   <si>
@@ -34,63 +43,153 @@
     <t>1.5. Políticas de seguridad de la información del sitio web y protección de datos personales</t>
   </si>
   <si>
+    <t>/politicas.pdf(documento pdf en nueva pestaña)</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Nosotros</t>
+  </si>
+  <si>
+    <t>Cursos</t>
+  </si>
+  <si>
+    <t>Datos Abiertos</t>
+  </si>
+  <si>
+    <t>Transparencia</t>
+  </si>
+  <si>
+    <t>Normativa</t>
+  </si>
+  <si>
+    <t>Contactenos</t>
+  </si>
+  <si>
     <t>2. Información de interés.</t>
   </si>
   <si>
     <t>2.1. Datos abiertos</t>
   </si>
   <si>
+    <t>/siniestralidad</t>
+  </si>
+  <si>
+    <t>Siniestralidad</t>
+  </si>
+  <si>
     <t>2.2. Estudios, investigaciones y otras publicaciones</t>
   </si>
   <si>
+    <t>/estudios_investigaciones_publicaciones</t>
+  </si>
+  <si>
+    <t>Estructura Organizativa</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.3. Convocatorias </t>
   </si>
   <si>
     <t>2.4. Preguntas y respuestas frecuentes</t>
   </si>
   <si>
+    <t>/preguntas_respuestas</t>
+  </si>
+  <si>
     <t>2.5. Glosario</t>
   </si>
   <si>
+    <t>/glosario</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.6. Noticias </t>
   </si>
   <si>
+    <t>/noticias</t>
+  </si>
+  <si>
+    <t>transparencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.7. Calendario de actividades </t>
   </si>
   <si>
+    <t>/calendario</t>
+  </si>
+  <si>
+    <t>contactanos</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.8. Información para niñas,  niños y adolescentes </t>
   </si>
   <si>
+    <t>/ninios_ninias_adolescente</t>
+  </si>
+  <si>
+    <t>siniestralidad</t>
+  </si>
+  <si>
     <t>2.9. Información adicional</t>
   </si>
   <si>
+    <t>estudios_investigacion</t>
+  </si>
+  <si>
     <t>3. Estructura orgánica y talento humano.</t>
   </si>
   <si>
     <t>3.1. Misión y visión</t>
   </si>
   <si>
+    <t>/nosotros</t>
+  </si>
+  <si>
+    <t>preguntas_respuestas</t>
+  </si>
+  <si>
     <t>3.2. Funciones y deberes</t>
   </si>
   <si>
+    <t>glosario</t>
+  </si>
+  <si>
     <t>3.3. Procesos y procedimientos</t>
   </si>
   <si>
+    <t>noticias</t>
+  </si>
+  <si>
     <t>3.4. Organigrama</t>
   </si>
   <si>
+    <t>calendario</t>
+  </si>
+  <si>
     <t>3.5. Directorio de información de servidores públicos, contratistas y empleados</t>
   </si>
   <si>
+    <t>ninios_ninias_adolescentes</t>
+  </si>
+  <si>
     <t>3.6. Directorio de entidades</t>
   </si>
   <si>
+    <t>nosotros</t>
+  </si>
+  <si>
     <t>3.7. Directorio de agremiaciones, asociaciones y otros grupos de interés</t>
   </si>
   <si>
+    <t>medios_pqrs</t>
+  </si>
+  <si>
     <t>3.8. Ofertas de empleo</t>
   </si>
   <si>
+    <t>pqrs</t>
+  </si>
+  <si>
     <t>4. Normatividad.</t>
   </si>
   <si>
@@ -160,7 +259,7 @@
     <t>8. Contratación.</t>
   </si>
   <si>
-    <t>8.1. Publicación de la información contractuaL</t>
+    <t>8.1. Publicación de la información contractual</t>
   </si>
   <si>
     <t>8.2. Publicación de la ejecución de contratos</t>
@@ -217,7 +316,13 @@
     <t xml:space="preserve">11.1. Medios de seguimiento para la consulta del estado de las solicitudes de información pública </t>
   </si>
   <si>
+    <t>/medios_spqr</t>
+  </si>
+  <si>
     <t>11.2. Formulario para la recepción de solicitudes de información pública.</t>
+  </si>
+  <si>
+    <t>/spqr</t>
   </si>
   <si>
     <t>12. Criterio Diferencial de Accesibilidad.</t>
@@ -241,10 +346,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -259,6 +364,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -292,6 +404,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -300,8 +419,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,8 +450,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +475,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,89 +532,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -437,109 +542,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,67 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,22 +770,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,22 +810,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,16 +835,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,148 +853,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,7 +1008,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="33" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -912,17 +1017,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="33">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -976,6 +1081,18 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1243,676 +1360,633 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:B127"/>
+  <dimension ref="B5:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.625" style="1" customWidth="true"/>
-    <col min="2" max="2" width="95.125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="52.625" style="1" customWidth="true"/>
+    <col min="3" max="3" width="111.875" style="1" customWidth="true"/>
+    <col min="4" max="4" width="50.625" customWidth="true"/>
+    <col min="7" max="7" width="27.5" customWidth="true"/>
+    <col min="11" max="11" width="15.125" customWidth="true"/>
+    <col min="12" max="12" width="14.75" customWidth="true"/>
+    <col min="13" max="13" width="11" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+      <c r="I9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="J9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
+      <c r="L9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
+      <c r="M9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="N9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+    <row r="13" spans="2:5">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+      <c r="G18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3" t="s">
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3" t="s">
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2"/>
+      <c r="C20" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
+      <c r="G20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3" t="s">
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2"/>
+      <c r="C21" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2" t="s">
+      <c r="G21" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3" t="s">
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3" t="s">
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3" t="s">
+      <c r="G23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="G24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2" t="s">
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="G25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3" t="s">
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2"/>
+      <c r="C26" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="3" t="s">
+      <c r="G26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="5" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="3" t="s">
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" ht="16.5" spans="1:2">
-      <c r="A121" s="6" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B121" s="7" t="s">
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:2">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="8" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B123" s="9" t="s">
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="8"/>
-      <c r="B124" s="9"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="8"/>
-      <c r="B125" s="9"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="8"/>
-      <c r="B126" s="9"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="8"/>
-      <c r="B127" s="9"/>
+    <row r="39" spans="2:3">
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="7"/>
+      <c r="C61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" ht="33" spans="2:3">
+      <c r="B62" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="2:3">
+      <c r="B63" s="8"/>
+      <c r="C63" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="2"/>
+      <c r="C66" s="5"/>
+      <c r="E66">
+        <f>COUNTA(E5:E64)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="2"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A56"/>
-    <mergeCell ref="A57:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A93:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B94:B120"/>
-    <mergeCell ref="B123:B127"/>
+  <mergeCells count="2">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D8;D10:D61">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
